--- a/data/2023.09.29-CE.xlsx
+++ b/data/2023.09.29-CE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinkp\GitHub\opentrons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A5998B-B294-4E31-9398-03C2BCC509FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dispense_Volumes" sheetId="1" r:id="rId1"/>
-    <sheet name="Stock_Solutions" sheetId="2" r:id="rId2"/>
+    <sheet name="Stock_solutions" sheetId="2" r:id="rId2"/>
+    <sheet name="Labware" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>Destination_Well</t>
   </si>
@@ -407,9 +407,6 @@
     <t xml:space="preserve">Decanoate 2mM </t>
   </si>
   <si>
-    <t>Solvent</t>
-  </si>
-  <si>
     <t>Concentration (mM)</t>
   </si>
   <si>
@@ -419,13 +416,7 @@
     <t>Soduim hydroxide</t>
   </si>
   <si>
-    <t>Corning_24_wellplate_3.4_flat</t>
-  </si>
-  <si>
     <t>Labware_position_opentrons</t>
-  </si>
-  <si>
-    <t>Pipette_name</t>
   </si>
   <si>
     <t>Molecular_weight(g/mol)</t>
@@ -643,52 +634,88 @@
     </r>
   </si>
   <si>
-    <t>Tube_rack_position</t>
-  </si>
-  <si>
     <t xml:space="preserve">Decanoic 50mM </t>
   </si>
   <si>
     <t>REAGENTS</t>
   </si>
   <si>
-    <t>Plate_name</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
-    <t>Tube_rack_name</t>
-  </si>
-  <si>
     <t>opentrons_96_tiprack_20ul</t>
   </si>
   <si>
     <t>corning_96_wellplate_360ul_flat</t>
   </si>
   <si>
-    <t>Plate_position_opentrons</t>
-  </si>
-  <si>
     <t>p20_single_gen2</t>
   </si>
   <si>
-    <t>Pipette_position</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>Total Volume/well</t>
-  </si>
-  <si>
-    <t>Labware/REAGENTS</t>
+    <t>left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labware  </t>
+  </si>
+  <si>
+    <t>Corning 24 Well Plate 3.4 mL Flat</t>
+  </si>
+  <si>
+    <t>corning_24_wellplate_3.4_flat</t>
+  </si>
+  <si>
+    <t>Pipette 20uL</t>
+  </si>
+  <si>
+    <t>Opentrons 96 Tip Rack 20uL</t>
+  </si>
+  <si>
+    <t>Corning 96 Well Plate 360uL Flat</t>
+  </si>
+  <si>
+    <t>Contains stock solutions</t>
+  </si>
+  <si>
+    <t>Pipette  used</t>
+  </si>
+  <si>
+    <t>Destination wells</t>
+  </si>
+  <si>
+    <t>Total Volume Needed</t>
+  </si>
+  <si>
+    <t>Labware_Role</t>
+  </si>
+  <si>
+    <t>tiprack</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>Designation_name_code</t>
+  </si>
+  <si>
+    <t>Labware_API_name</t>
+  </si>
+  <si>
+    <t>Solvents</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>Tips used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -829,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,6 +864,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,7 +875,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -857,7 +885,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -868,7 +896,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,37 +1202,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A102" sqref="A101:A102"/>
+    <sheetView topLeftCell="A70" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
     <col min="11" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" customWidth="1"/>
-    <col min="17" max="18" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" customWidth="1"/>
+    <col min="16" max="16" width="13.26953125" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="13.21875" customWidth="1"/>
-    <col min="21" max="256" width="8.77734375" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" customWidth="1"/>
+    <col min="21" max="256" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7226,153 +7255,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="7" customWidth="1"/>
-    <col min="5" max="7" width="23" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="8" customWidth="1"/>
+    <col min="5" max="7" width="23" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="12" width="22.21875" customWidth="1"/>
-    <col min="13" max="13" width="24.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" customWidth="1"/>
-    <col min="15" max="15" width="27.77734375" customWidth="1"/>
-    <col min="16" max="16" width="23.44140625" customWidth="1"/>
-    <col min="17" max="256" width="8.77734375" customWidth="1"/>
+    <col min="11" max="12" width="22.1796875" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="15" max="15" width="27.81640625" customWidth="1"/>
+    <col min="16" max="16" width="23.453125" customWidth="1"/>
+    <col min="17" max="256" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="E1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="H1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>50</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>172.27</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <f>SUM(Dispense_Volumes!B2:T2)</f>
         <v>106</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="5">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="5">
-        <v>8</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="19"/>
       <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
         <f>SUM(Dispense_Volumes!B3:T3)</f>
         <v>84</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="5"/>
@@ -7382,24 +7378,24 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16">
         <f>SUM(Dispense_Volumes!B4:T4)</f>
         <v>84</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="5"/>
@@ -7409,31 +7405,31 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>132</v>
+      <c r="B5" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>50</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>171.25</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <v>0.06</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <f>SUM(Dispense_Volumes!B5:T5)</f>
         <v>72.5</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>122</v>
+      <c r="H5" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -7442,25 +7438,25 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
         <f>SUM(Dispense_Volumes!B6:T6)</f>
         <v>77.5</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>122</v>
+      <c r="H6" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -7469,25 +7465,25 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
         <f>SUM(Dispense_Volumes!B7:T7)</f>
         <v>87.5</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>122</v>
+      <c r="H7" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -7496,30 +7492,30 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>50</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <v>157.30000000000001</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="16">
         <f>SUM(Dispense_Volumes!B8:T8)</f>
         <v>89</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="5"/>
@@ -7529,24 +7525,24 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <v>10</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <f>SUM(Dispense_Volumes!B9:T9)</f>
         <v>91</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="5"/>
@@ -7556,24 +7552,24 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <f>SUM(Dispense_Volumes!B10:T10)</f>
         <v>82.5</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="5"/>
@@ -7583,30 +7579,30 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>50</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>280.29000000000002</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <f>SUM(Dispense_Volumes!B11:T11)</f>
         <v>73</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="5"/>
@@ -7616,24 +7612,24 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>10</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <f>SUM(Dispense_Volumes!B12:T12)</f>
         <v>92</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="5"/>
@@ -7643,24 +7639,24 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <f>SUM(Dispense_Volumes!B13:T13)</f>
         <v>103</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="5"/>
@@ -7670,31 +7666,31 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <v>50</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <v>260.33</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="16">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="16">
         <f>SUM(Dispense_Volumes!B14:T14)</f>
         <v>101</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>121</v>
+      <c r="H14" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7703,25 +7699,25 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <v>10</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
         <f>SUM(Dispense_Volumes!B15:T15)</f>
         <v>75.5</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>121</v>
+      <c r="H15" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -7730,25 +7726,25 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
         <f>SUM(Dispense_Volumes!B16:T16)</f>
         <v>72</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>121</v>
+      <c r="H16" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -7757,30 +7753,30 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <v>15</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="16">
         <v>158.28</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="16">
         <v>1.67E-2</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="16">
         <f>SUM(Dispense_Volumes!B17:T17)</f>
         <v>80.5</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="5"/>
@@ -7790,24 +7786,24 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="16">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
         <f>SUM(Dispense_Volumes!B18:T18)</f>
         <v>57.5</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="5"/>
@@ -7817,30 +7813,30 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="16">
         <v>10</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <v>246.34</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="16">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="16">
         <f>SUM(Dispense_Volumes!B19:T19)</f>
         <v>81.5</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="5"/>
@@ -7850,21 +7846,21 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <v>2</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -7872,30 +7868,144 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>